--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1458.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1458.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.397932033845722</v>
+        <v>1.162114024162292</v>
       </c>
       <c r="B1">
-        <v>1.544493176940926</v>
+        <v>2.582020282745361</v>
       </c>
       <c r="C1">
-        <v>1.833011845167293</v>
+        <v>4.202258110046387</v>
       </c>
       <c r="D1">
-        <v>3.278302923490128</v>
+        <v>3.443256139755249</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.21016788482666</v>
       </c>
     </row>
   </sheetData>
